--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,177 +46,171 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>pay</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>cheap</t>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>better</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>one</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>bought</t>
   </si>
   <si>
@@ -238,12 +232,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -268,9 +262,6 @@
     <t>christmas</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -278,6 +269,9 @@
   </si>
   <si>
     <t>game</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -641,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -752,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -760,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K4">
-        <v>0.8392857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K5">
-        <v>0.7096774193548387</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7580645161290323</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K6">
-        <v>0.6792452830188679</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +904,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7427184466019418</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>0.640625</v>
+        <v>0.578125</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,37 +954,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7524271844660194</v>
       </c>
       <c r="C8">
+        <v>155</v>
+      </c>
+      <c r="D8">
+        <v>155</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>51</v>
       </c>
-      <c r="D8">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>0.4927536231884058</v>
+        <v>0.4602132895816243</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>561</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>562</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6891891891891891</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K9">
-        <v>0.4479081214109926</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L9">
-        <v>546</v>
+        <v>31</v>
       </c>
       <c r="M9">
-        <v>547</v>
+        <v>31</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>673</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6875</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10">
-        <v>0.418103448275862</v>
+        <v>0.406025824964132</v>
       </c>
       <c r="L10">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M10">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6722689075630253</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,16 +1125,16 @@
         <v>39</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11">
-        <v>0.3838174273858921</v>
+        <v>0.3921161825726141</v>
       </c>
       <c r="L11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M11">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K12">
-        <v>0.3166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,31 +1222,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>0.3006134969325153</v>
+        <v>0.3149847094801223</v>
       </c>
       <c r="L13">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6296296296296297</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K14">
-        <v>0.291005291005291</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L14">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M14">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,37 +1304,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6111111111111112</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>33</v>
       </c>
-      <c r="D15">
-        <v>33</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>21</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K15">
-        <v>0.283132530120482</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1354,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6024096385542169</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>0.234375</v>
@@ -1410,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5681159420289855</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C17">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D17">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,28 +1422,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K17">
-        <v>0.1927710843373494</v>
+        <v>0.1895161290322581</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17">
         <v>48</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
         <v>201</v>
@@ -1460,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5573770491803278</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,31 +1472,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K18">
-        <v>0.1559139784946237</v>
+        <v>0.1657848324514991</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>195</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>157</v>
+        <v>946</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5511811023622047</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,31 +1522,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K19">
-        <v>0.148506151142355</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L19">
-        <v>169</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>969</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1554,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5238095238095238</v>
+        <v>0.4921875</v>
       </c>
       <c r="C20">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20">
-        <v>0.1229050279329609</v>
+        <v>0.09675324675324676</v>
       </c>
       <c r="L20">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>314</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1604,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.484375</v>
       </c>
       <c r="C21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,31 +1622,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K21">
-        <v>0.1066319895968791</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L21">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1374</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1654,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.484375</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,31 +1672,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K22">
-        <v>0.0564516129032258</v>
+        <v>0.05270270270270271</v>
       </c>
       <c r="L22">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N22">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="O22">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1704,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4603174603174603</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4526315789473684</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1762,13 +1756,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4207920792079208</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D25">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1780,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1788,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4157303370786517</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1806,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1814,13 +1808,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3981042654028436</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C27">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1832,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1840,13 +1834,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3333333333333333</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1858,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1866,25 +1860,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3214285714285715</v>
+        <v>0.3212435233160622</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D29">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>95</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1892,25 +1886,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3195876288659794</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1918,13 +1912,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2989690721649484</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1936,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1944,25 +1938,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2916666666666667</v>
+        <v>0.285</v>
       </c>
       <c r="C32">
-        <v>196</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="E32">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>476</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1970,13 +1964,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2898550724637681</v>
+        <v>0.2848101265822785</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1988,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>196</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1996,13 +1990,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2848101265822785</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2014,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2022,13 +2016,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.27</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D35">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2040,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2048,13 +2042,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2685185185185185</v>
+        <v>0.265625</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2066,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2074,25 +2068,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2645161290322581</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2100,13 +2094,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2571428571428571</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="C38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2118,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2126,25 +2120,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2542372881355932</v>
+        <v>0.2629107981220657</v>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>88</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2152,25 +2146,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.25</v>
+        <v>0.2514880952380952</v>
       </c>
       <c r="C40">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="D40">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>237</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2178,25 +2172,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2404371584699453</v>
+        <v>0.2408376963350785</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D41">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2204,25 +2198,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2383177570093458</v>
+        <v>0.2362030905077263</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>163</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2230,25 +2224,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2362204724409449</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D43">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2256,13 +2250,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2234513274336283</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="C44">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E44">
         <v>0.02</v>
@@ -2274,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>351</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2282,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2219020172910663</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C45">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D45">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>270</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2308,25 +2302,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2146596858638743</v>
+        <v>0.1959654178674352</v>
       </c>
       <c r="C46">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D46">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>150</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2334,25 +2328,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1917808219178082</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2360,25 +2354,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1842105263157895</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="C48">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>217</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2386,25 +2380,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1740890688259109</v>
+        <v>0.1660377358490566</v>
       </c>
       <c r="C49">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2412,25 +2406,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1612903225806452</v>
+        <v>0.1510204081632653</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E50">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F50">
-        <v>0.91</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2438,25 +2432,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1510416666666667</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>163</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2464,25 +2458,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1424501424501425</v>
+        <v>0.1407284768211921</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D52">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E52">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F52">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>301</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2490,25 +2484,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1374172185430464</v>
+        <v>0.129746835443038</v>
       </c>
       <c r="C53">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>521</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2516,13 +2510,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.129746835443038</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C54">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E54">
         <v>0.02</v>
@@ -2534,7 +2528,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>275</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2542,25 +2536,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.126410835214447</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F55">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>387</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2568,25 +2562,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1263537906137184</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="C56">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="D56">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E56">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="F56">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>242</v>
+        <v>708</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2594,25 +2588,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09154929577464789</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="C57">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D57">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F57">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2620,25 +2614,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.08235294117647059</v>
+        <v>0.09069767441860466</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D58">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E58">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="F58">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2646,25 +2640,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.08045977011494253</v>
+        <v>0.0888208269525268</v>
       </c>
       <c r="C59">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D59">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E59">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="F59">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>720</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2672,13 +2666,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.07668711656441718</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="C60">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E60">
         <v>0.06</v>
@@ -2690,59 +2684,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.06802721088435375</v>
-      </c>
-      <c r="C61">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>36</v>
-      </c>
-      <c r="E61">
-        <v>0.17</v>
-      </c>
-      <c r="F61">
-        <v>0.83</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.064</v>
-      </c>
-      <c r="C62">
-        <v>32</v>
-      </c>
-      <c r="D62">
-        <v>36</v>
-      </c>
-      <c r="E62">
-        <v>0.11</v>
-      </c>
-      <c r="F62">
-        <v>0.89</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
